--- a/doc/000_WBS.xlsx
+++ b/doc/000_WBS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gw\202405\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gw\202405\dev\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47CF1CC2-8ADC-4A7E-BB75-99DBA661A896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58008003-FA96-4E19-8CB7-A6CA53DA99F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1605" yWindow="1950" windowWidth="25095" windowHeight="14385" xr2:uid="{A0E9BA3F-02FD-48E1-AEF6-660A2CDC8575}"/>
+    <workbookView xWindow="1605" yWindow="1095" windowWidth="25095" windowHeight="14385" xr2:uid="{A0E9BA3F-02FD-48E1-AEF6-660A2CDC8575}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="29">
   <si>
     <t>火</t>
     <rPh sb="0" eb="1">
@@ -82,6 +82,160 @@
     <rPh sb="0" eb="1">
       <t>ゲツ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実</t>
+    <rPh sb="0" eb="1">
+      <t>ジツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見積もりまで</t>
+    <rPh sb="0" eb="2">
+      <t>ミツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WBS作成</t>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローカル環境構築</t>
+    <rPh sb="4" eb="6">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウチク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル設計書</t>
+    <rPh sb="4" eb="7">
+      <t>セッケイショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>API仕様書</t>
+    <rPh sb="3" eb="6">
+      <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面仕様書</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バックエンド実装</t>
+    <rPh sb="6" eb="8">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フロントエンド実装</t>
+    <rPh sb="7" eb="9">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWSのと差分確認</t>
+    <rPh sb="5" eb="7">
+      <t>サブン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移植作業</t>
+    <rPh sb="0" eb="2">
+      <t>イショク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストデータエントリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト仕様書</t>
+    <rPh sb="3" eb="6">
+      <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KPT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS環境構築</t>
+    <rPh sb="3" eb="5">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウチク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進捗率</t>
+    <rPh sb="0" eb="3">
+      <t>シンチョクリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業内容</t>
+    <rPh sb="0" eb="4">
+      <t>サギョウナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -89,7 +243,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,16 +259,52 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="0.39997558519241921"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -122,17 +312,199 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -449,212 +821,1687 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83AABDD-F4DE-4D5C-8A07-DCFFB00ADD6A}">
-  <dimension ref="H1:AL2"/>
+  <dimension ref="A1:AJ52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG8" sqref="AG8"/>
+      <selection activeCell="AJ21" sqref="AJ21:AJ22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="4.375" customWidth="1"/>
-    <col min="8" max="32" width="3.125" style="1" customWidth="1"/>
-    <col min="33" max="38" width="3.125" customWidth="1"/>
+    <col min="2" max="2" width="20.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="4.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="4.5" style="4" customWidth="1"/>
+    <col min="5" max="29" width="3.125" style="1" customWidth="1"/>
+    <col min="30" max="35" width="3.125" customWidth="1"/>
+    <col min="36" max="36" width="39.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="8:38" x14ac:dyDescent="0.4">
-      <c r="H1" s="1">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="9">
         <v>1</v>
       </c>
-      <c r="I1" s="1">
+      <c r="F1" s="9">
         <v>2</v>
       </c>
-      <c r="J1" s="1">
+      <c r="G1" s="10">
         <v>3</v>
       </c>
-      <c r="K1" s="1">
+      <c r="H1" s="10">
         <v>4</v>
       </c>
-      <c r="L1" s="1">
+      <c r="I1" s="10">
         <v>5</v>
       </c>
-      <c r="M1" s="1">
+      <c r="J1" s="10">
         <v>6</v>
       </c>
-      <c r="N1" s="1">
+      <c r="K1" s="9">
         <v>7</v>
       </c>
-      <c r="O1" s="1">
+      <c r="L1" s="9">
         <v>8</v>
       </c>
-      <c r="P1" s="1">
+      <c r="M1" s="9">
         <v>9</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="N1" s="9">
         <v>10</v>
       </c>
-      <c r="R1" s="1">
+      <c r="O1" s="10">
         <v>11</v>
       </c>
-      <c r="S1" s="1">
+      <c r="P1" s="10">
         <v>12</v>
       </c>
-      <c r="T1" s="1">
+      <c r="Q1" s="9">
         <v>13</v>
       </c>
-      <c r="U1" s="1">
+      <c r="R1" s="9">
         <v>14</v>
       </c>
-      <c r="V1" s="1">
+      <c r="S1" s="9">
         <v>15</v>
       </c>
-      <c r="W1" s="1">
+      <c r="T1" s="9">
         <v>16</v>
       </c>
-      <c r="X1" s="1">
+      <c r="U1" s="9">
         <v>17</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="V1" s="10">
         <v>18</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="W1" s="10">
         <v>19</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="X1" s="9">
         <v>20</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="Y1" s="9">
         <v>21</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="Z1" s="9">
         <v>22</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AA1" s="9">
         <v>23</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="AB1" s="9">
         <v>24</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="AC1" s="10">
         <v>25</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="AD1" s="10">
         <v>26</v>
       </c>
-      <c r="AH1" s="1">
+      <c r="AE1" s="9">
         <v>27</v>
       </c>
-      <c r="AI1" s="1">
+      <c r="AF1" s="9">
         <v>28</v>
       </c>
-      <c r="AJ1" s="1">
+      <c r="AG1" s="9">
         <v>29</v>
       </c>
-      <c r="AK1" s="1">
+      <c r="AH1" s="9">
         <v>30</v>
       </c>
-      <c r="AL1" s="1">
+      <c r="AI1" s="9">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="8:38" x14ac:dyDescent="0.4">
-      <c r="H2" s="1" t="s">
+      <c r="AJ1" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="L2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="M2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="N2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="O2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="P2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="Q2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="R2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="S2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="T2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="U2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="V2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="W2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="X2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="Y2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="Z2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="AA2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AB2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AC2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AD2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AE2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AF2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AG2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AH2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AI2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AJ2" s="11"/>
+    </row>
+    <row r="3" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="15"/>
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="15"/>
+      <c r="AI3" s="15"/>
+      <c r="AJ3" s="20"/>
+    </row>
+    <row r="4" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="5"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="17">
+        <v>70</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="37"/>
+      <c r="AE4" s="19"/>
+      <c r="AF4" s="19"/>
+      <c r="AG4" s="19"/>
+      <c r="AH4" s="19"/>
+      <c r="AI4" s="19"/>
+      <c r="AJ4" s="21"/>
+    </row>
+    <row r="5" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="22">
+        <v>2</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="26"/>
+      <c r="AC5" s="34"/>
+      <c r="AD5" s="36"/>
+      <c r="AE5" s="27"/>
+      <c r="AF5" s="27"/>
+      <c r="AG5" s="27"/>
+      <c r="AH5" s="27"/>
+      <c r="AI5" s="27"/>
+      <c r="AJ5" s="28"/>
+    </row>
+    <row r="6" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="22"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="30"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="31"/>
+      <c r="Z6" s="31"/>
+      <c r="AA6" s="31"/>
+      <c r="AB6" s="31"/>
+      <c r="AC6" s="35"/>
+      <c r="AD6" s="37"/>
+      <c r="AE6" s="32"/>
+      <c r="AF6" s="32"/>
+      <c r="AG6" s="32"/>
+      <c r="AH6" s="32"/>
+      <c r="AI6" s="32"/>
+      <c r="AJ6" s="33"/>
+    </row>
+    <row r="7" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="5">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="34"/>
+      <c r="AD7" s="36"/>
+      <c r="AE7" s="15"/>
+      <c r="AF7" s="15"/>
+      <c r="AG7" s="15"/>
+      <c r="AH7" s="15"/>
+      <c r="AI7" s="15"/>
+      <c r="AJ7" s="20"/>
+    </row>
+    <row r="8" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="5"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="18"/>
+      <c r="AC8" s="35"/>
+      <c r="AD8" s="37"/>
+      <c r="AE8" s="19"/>
+      <c r="AF8" s="19"/>
+      <c r="AG8" s="19"/>
+      <c r="AH8" s="19"/>
+      <c r="AI8" s="19"/>
+      <c r="AJ8" s="21"/>
+    </row>
+    <row r="9" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="22">
         <v>4</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="B9" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="34"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="34"/>
+      <c r="AD9" s="36"/>
+      <c r="AE9" s="27"/>
+      <c r="AF9" s="27"/>
+      <c r="AG9" s="27"/>
+      <c r="AH9" s="27"/>
+      <c r="AI9" s="27"/>
+      <c r="AJ9" s="28"/>
+    </row>
+    <row r="10" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="30"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="31"/>
+      <c r="Y10" s="31"/>
+      <c r="Z10" s="31"/>
+      <c r="AA10" s="31"/>
+      <c r="AB10" s="31"/>
+      <c r="AC10" s="35"/>
+      <c r="AD10" s="37"/>
+      <c r="AE10" s="32"/>
+      <c r="AF10" s="32"/>
+      <c r="AG10" s="32"/>
+      <c r="AH10" s="32"/>
+      <c r="AI10" s="32"/>
+      <c r="AJ10" s="33"/>
+    </row>
+    <row r="11" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="5">
         <v>5</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="B11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="34"/>
+      <c r="AD11" s="36"/>
+      <c r="AE11" s="15"/>
+      <c r="AF11" s="15"/>
+      <c r="AG11" s="15"/>
+      <c r="AH11" s="15"/>
+      <c r="AI11" s="15"/>
+      <c r="AJ11" s="20"/>
+    </row>
+    <row r="12" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="5"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="35"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="18"/>
+      <c r="AA12" s="18"/>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="35"/>
+      <c r="AD12" s="37"/>
+      <c r="AE12" s="19"/>
+      <c r="AF12" s="19"/>
+      <c r="AG12" s="19"/>
+      <c r="AH12" s="19"/>
+      <c r="AI12" s="19"/>
+      <c r="AJ12" s="21"/>
+    </row>
+    <row r="13" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="22">
         <v>6</v>
       </c>
-      <c r="AJ2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
+      <c r="B13" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="34"/>
+      <c r="W13" s="34"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="34"/>
+      <c r="AD13" s="36"/>
+      <c r="AE13" s="27"/>
+      <c r="AF13" s="27"/>
+      <c r="AG13" s="27"/>
+      <c r="AH13" s="27"/>
+      <c r="AI13" s="27"/>
+      <c r="AJ13" s="28"/>
+    </row>
+    <row r="14" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="30"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="35"/>
+      <c r="X14" s="31"/>
+      <c r="Y14" s="31"/>
+      <c r="Z14" s="31"/>
+      <c r="AA14" s="31"/>
+      <c r="AB14" s="31"/>
+      <c r="AC14" s="35"/>
+      <c r="AD14" s="37"/>
+      <c r="AE14" s="32"/>
+      <c r="AF14" s="32"/>
+      <c r="AG14" s="32"/>
+      <c r="AH14" s="32"/>
+      <c r="AI14" s="32"/>
+      <c r="AJ14" s="33"/>
+    </row>
+    <row r="15" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="5">
+        <v>7</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="34"/>
+      <c r="W15" s="34"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="34"/>
+      <c r="AD15" s="36"/>
+      <c r="AE15" s="15"/>
+      <c r="AF15" s="15"/>
+      <c r="AG15" s="15"/>
+      <c r="AH15" s="15"/>
+      <c r="AI15" s="15"/>
+      <c r="AJ15" s="20"/>
+    </row>
+    <row r="16" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="5"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="18"/>
+      <c r="Y16" s="18"/>
+      <c r="Z16" s="18"/>
+      <c r="AA16" s="18"/>
+      <c r="AB16" s="18"/>
+      <c r="AC16" s="35"/>
+      <c r="AD16" s="37"/>
+      <c r="AE16" s="19"/>
+      <c r="AF16" s="19"/>
+      <c r="AG16" s="19"/>
+      <c r="AH16" s="19"/>
+      <c r="AI16" s="19"/>
+      <c r="AJ16" s="21"/>
+    </row>
+    <row r="17" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="22">
+        <v>8</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="26"/>
+      <c r="AA17" s="26"/>
+      <c r="AB17" s="26"/>
+      <c r="AC17" s="34"/>
+      <c r="AD17" s="36"/>
+      <c r="AE17" s="27"/>
+      <c r="AF17" s="27"/>
+      <c r="AG17" s="27"/>
+      <c r="AH17" s="27"/>
+      <c r="AI17" s="27"/>
+      <c r="AJ17" s="28"/>
+    </row>
+    <row r="18" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="30"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="31"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="31"/>
+      <c r="Y18" s="31"/>
+      <c r="Z18" s="31"/>
+      <c r="AA18" s="31"/>
+      <c r="AB18" s="31"/>
+      <c r="AC18" s="35"/>
+      <c r="AD18" s="37"/>
+      <c r="AE18" s="32"/>
+      <c r="AF18" s="32"/>
+      <c r="AG18" s="32"/>
+      <c r="AH18" s="32"/>
+      <c r="AI18" s="32"/>
+      <c r="AJ18" s="33"/>
+    </row>
+    <row r="19" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="5">
+        <v>9</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="34"/>
+      <c r="AD19" s="36"/>
+      <c r="AE19" s="15"/>
+      <c r="AF19" s="15"/>
+      <c r="AG19" s="15"/>
+      <c r="AH19" s="15"/>
+      <c r="AI19" s="15"/>
+      <c r="AJ19" s="20"/>
+    </row>
+    <row r="20" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="5"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="18"/>
+      <c r="AB20" s="18"/>
+      <c r="AC20" s="35"/>
+      <c r="AD20" s="37"/>
+      <c r="AE20" s="19"/>
+      <c r="AF20" s="19"/>
+      <c r="AG20" s="19"/>
+      <c r="AH20" s="19"/>
+      <c r="AI20" s="19"/>
+      <c r="AJ20" s="21"/>
+    </row>
+    <row r="21" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="22">
+        <v>10</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="34"/>
+      <c r="W21" s="34"/>
+      <c r="X21" s="26"/>
+      <c r="Y21" s="26"/>
+      <c r="Z21" s="26"/>
+      <c r="AA21" s="26"/>
+      <c r="AB21" s="26"/>
+      <c r="AC21" s="34"/>
+      <c r="AD21" s="36"/>
+      <c r="AE21" s="27"/>
+      <c r="AF21" s="27"/>
+      <c r="AG21" s="27"/>
+      <c r="AH21" s="27"/>
+      <c r="AI21" s="27"/>
+      <c r="AJ21" s="28"/>
+    </row>
+    <row r="22" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="22"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="30"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="31"/>
+      <c r="Y22" s="31"/>
+      <c r="Z22" s="31"/>
+      <c r="AA22" s="31"/>
+      <c r="AB22" s="31"/>
+      <c r="AC22" s="35"/>
+      <c r="AD22" s="37"/>
+      <c r="AE22" s="32"/>
+      <c r="AF22" s="32"/>
+      <c r="AG22" s="32"/>
+      <c r="AH22" s="32"/>
+      <c r="AI22" s="32"/>
+      <c r="AJ22" s="33"/>
+    </row>
+    <row r="23" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="5">
+        <v>11</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="34"/>
+      <c r="W23" s="34"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="14"/>
+      <c r="AC23" s="34"/>
+      <c r="AD23" s="36"/>
+      <c r="AE23" s="15"/>
+      <c r="AF23" s="15"/>
+      <c r="AG23" s="15"/>
+      <c r="AH23" s="15"/>
+      <c r="AI23" s="15"/>
+      <c r="AJ23" s="20"/>
+    </row>
+    <row r="24" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="5"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="35"/>
+      <c r="W24" s="35"/>
+      <c r="X24" s="18"/>
+      <c r="Y24" s="18"/>
+      <c r="Z24" s="18"/>
+      <c r="AA24" s="18"/>
+      <c r="AB24" s="18"/>
+      <c r="AC24" s="35"/>
+      <c r="AD24" s="37"/>
+      <c r="AE24" s="19"/>
+      <c r="AF24" s="19"/>
+      <c r="AG24" s="19"/>
+      <c r="AH24" s="19"/>
+      <c r="AI24" s="19"/>
+      <c r="AJ24" s="21"/>
+    </row>
+    <row r="25" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="22">
+        <v>12</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="34"/>
+      <c r="W25" s="34"/>
+      <c r="X25" s="26"/>
+      <c r="Y25" s="26"/>
+      <c r="Z25" s="26"/>
+      <c r="AA25" s="26"/>
+      <c r="AB25" s="26"/>
+      <c r="AC25" s="34"/>
+      <c r="AD25" s="36"/>
+      <c r="AE25" s="27"/>
+      <c r="AF25" s="27"/>
+      <c r="AG25" s="27"/>
+      <c r="AH25" s="27"/>
+      <c r="AI25" s="27"/>
+      <c r="AJ25" s="28"/>
+    </row>
+    <row r="26" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="22"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="30"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
+      <c r="S26" s="31"/>
+      <c r="T26" s="31"/>
+      <c r="U26" s="31"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="35"/>
+      <c r="X26" s="31"/>
+      <c r="Y26" s="31"/>
+      <c r="Z26" s="31"/>
+      <c r="AA26" s="31"/>
+      <c r="AB26" s="31"/>
+      <c r="AC26" s="35"/>
+      <c r="AD26" s="37"/>
+      <c r="AE26" s="32"/>
+      <c r="AF26" s="32"/>
+      <c r="AG26" s="32"/>
+      <c r="AH26" s="32"/>
+      <c r="AI26" s="32"/>
+      <c r="AJ26" s="33"/>
+    </row>
+    <row r="27" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="5">
+        <v>13</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="34"/>
+      <c r="W27" s="34"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="14"/>
+      <c r="AA27" s="14"/>
+      <c r="AB27" s="14"/>
+      <c r="AC27" s="34"/>
+      <c r="AD27" s="36"/>
+      <c r="AE27" s="15"/>
+      <c r="AF27" s="15"/>
+      <c r="AG27" s="15"/>
+      <c r="AH27" s="15"/>
+      <c r="AI27" s="15"/>
+      <c r="AJ27" s="20"/>
+    </row>
+    <row r="28" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="5"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="17"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="18"/>
+      <c r="V28" s="35"/>
+      <c r="W28" s="35"/>
+      <c r="X28" s="18"/>
+      <c r="Y28" s="18"/>
+      <c r="Z28" s="18"/>
+      <c r="AA28" s="18"/>
+      <c r="AB28" s="18"/>
+      <c r="AC28" s="35"/>
+      <c r="AD28" s="37"/>
+      <c r="AE28" s="19"/>
+      <c r="AF28" s="19"/>
+      <c r="AG28" s="19"/>
+      <c r="AH28" s="19"/>
+      <c r="AI28" s="19"/>
+      <c r="AJ28" s="21"/>
+    </row>
+    <row r="29" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="22">
+        <v>14</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="34"/>
+      <c r="W29" s="34"/>
+      <c r="X29" s="26"/>
+      <c r="Y29" s="26"/>
+      <c r="Z29" s="26"/>
+      <c r="AA29" s="26"/>
+      <c r="AB29" s="26"/>
+      <c r="AC29" s="34"/>
+      <c r="AD29" s="36"/>
+      <c r="AE29" s="27"/>
+      <c r="AF29" s="27"/>
+      <c r="AG29" s="27"/>
+      <c r="AH29" s="27"/>
+      <c r="AI29" s="27"/>
+      <c r="AJ29" s="28"/>
+    </row>
+    <row r="30" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="22"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="30"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="31"/>
+      <c r="U30" s="31"/>
+      <c r="V30" s="35"/>
+      <c r="W30" s="35"/>
+      <c r="X30" s="31"/>
+      <c r="Y30" s="31"/>
+      <c r="Z30" s="31"/>
+      <c r="AA30" s="31"/>
+      <c r="AB30" s="31"/>
+      <c r="AC30" s="35"/>
+      <c r="AD30" s="37"/>
+      <c r="AE30" s="32"/>
+      <c r="AF30" s="32"/>
+      <c r="AG30" s="32"/>
+      <c r="AH30" s="32"/>
+      <c r="AI30" s="32"/>
+      <c r="AJ30" s="33"/>
+    </row>
+    <row r="31" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="5">
+        <v>15</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="34"/>
+      <c r="W31" s="34"/>
+      <c r="X31" s="14"/>
+      <c r="Y31" s="14"/>
+      <c r="Z31" s="14"/>
+      <c r="AA31" s="14"/>
+      <c r="AB31" s="14"/>
+      <c r="AC31" s="34"/>
+      <c r="AD31" s="36"/>
+      <c r="AE31" s="15"/>
+      <c r="AF31" s="15"/>
+      <c r="AG31" s="15"/>
+      <c r="AH31" s="15"/>
+      <c r="AI31" s="15"/>
+      <c r="AJ31" s="20"/>
+    </row>
+    <row r="32" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="5"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="17"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="18"/>
+      <c r="U32" s="18"/>
+      <c r="V32" s="35"/>
+      <c r="W32" s="35"/>
+      <c r="X32" s="18"/>
+      <c r="Y32" s="18"/>
+      <c r="Z32" s="18"/>
+      <c r="AA32" s="18"/>
+      <c r="AB32" s="18"/>
+      <c r="AC32" s="35"/>
+      <c r="AD32" s="37"/>
+      <c r="AE32" s="19"/>
+      <c r="AF32" s="19"/>
+      <c r="AG32" s="19"/>
+      <c r="AH32" s="19"/>
+      <c r="AI32" s="19"/>
+      <c r="AJ32" s="21"/>
+    </row>
+    <row r="33" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="22">
+        <v>16</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="34"/>
+      <c r="W33" s="34"/>
+      <c r="X33" s="26"/>
+      <c r="Y33" s="26"/>
+      <c r="Z33" s="26"/>
+      <c r="AA33" s="26"/>
+      <c r="AB33" s="26"/>
+      <c r="AC33" s="34"/>
+      <c r="AD33" s="36"/>
+      <c r="AE33" s="27"/>
+      <c r="AF33" s="27"/>
+      <c r="AG33" s="27"/>
+      <c r="AH33" s="27"/>
+      <c r="AI33" s="27"/>
+      <c r="AJ33" s="28"/>
+    </row>
+    <row r="34" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="22"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="30"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="31"/>
+      <c r="S34" s="31"/>
+      <c r="T34" s="31"/>
+      <c r="U34" s="31"/>
+      <c r="V34" s="35"/>
+      <c r="W34" s="35"/>
+      <c r="X34" s="31"/>
+      <c r="Y34" s="31"/>
+      <c r="Z34" s="31"/>
+      <c r="AA34" s="31"/>
+      <c r="AB34" s="31"/>
+      <c r="AC34" s="35"/>
+      <c r="AD34" s="37"/>
+      <c r="AE34" s="32"/>
+      <c r="AF34" s="32"/>
+      <c r="AG34" s="32"/>
+      <c r="AH34" s="32"/>
+      <c r="AI34" s="32"/>
+      <c r="AJ34" s="33"/>
+    </row>
+    <row r="35" spans="1:36" ht="160.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="36" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="38" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="40" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="42" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="43" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
+  <mergeCells count="53">
+    <mergeCell ref="AJ25:AJ26"/>
+    <mergeCell ref="AJ27:AJ28"/>
+    <mergeCell ref="AJ29:AJ30"/>
+    <mergeCell ref="AJ31:AJ32"/>
+    <mergeCell ref="AJ33:AJ34"/>
+    <mergeCell ref="AJ13:AJ14"/>
+    <mergeCell ref="AJ15:AJ16"/>
+    <mergeCell ref="AJ17:AJ18"/>
+    <mergeCell ref="AJ19:AJ20"/>
+    <mergeCell ref="AJ21:AJ22"/>
+    <mergeCell ref="AJ23:AJ24"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="AJ1:AJ2"/>
+    <mergeCell ref="AJ3:AJ4"/>
+    <mergeCell ref="AJ5:AJ6"/>
+    <mergeCell ref="AJ7:AJ8"/>
+    <mergeCell ref="AJ9:AJ10"/>
+    <mergeCell ref="AJ11:AJ12"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/000_WBS.xlsx
+++ b/doc/000_WBS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gw\202405\dev\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A59CE88-E3EC-47B6-8EFF-F831B46D047B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B62623-D107-46C8-97EB-61304A2ACAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1605" yWindow="1095" windowWidth="25095" windowHeight="14385" xr2:uid="{A0E9BA3F-02FD-48E1-AEF6-660A2CDC8575}"/>
+    <workbookView xWindow="1590" yWindow="645" windowWidth="25095" windowHeight="14385" xr2:uid="{A0E9BA3F-02FD-48E1-AEF6-660A2CDC8575}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="48">
   <si>
     <t>火</t>
     <rPh sb="0" eb="1">
@@ -95,13 +95,6 @@
     <t>実</t>
     <rPh sb="0" eb="1">
       <t>ジツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>見積もりまで</t>
-    <rPh sb="0" eb="2">
-      <t>ミツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -518,6 +511,59 @@
     </rPh>
     <rPh sb="25" eb="27">
       <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストエディタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能要件</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アーキテクチャの策定</t>
+    <rPh sb="8" eb="10">
+      <t>サクテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローカル環境で行い。AWS移行時は差分を確認することで対応</t>
+    <rPh sb="4" eb="6">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>イコウジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サブン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見積もりまで諸々</t>
+    <rPh sb="0" eb="2">
+      <t>ミツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>モロモロ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -765,44 +811,44 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1118,10 +1164,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83AABDD-F4DE-4D5C-8A07-DCFFB00ADD6A}">
-  <dimension ref="A1:AJ52"/>
+  <dimension ref="A1:AJ56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AJ35" sqref="AJ35"/>
+      <selection activeCell="B7" sqref="B7:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1132,17 +1178,17 @@
     <col min="4" max="4" width="4.5" style="4" customWidth="1"/>
     <col min="5" max="29" width="3.125" style="1" customWidth="1"/>
     <col min="30" max="35" width="3.125" customWidth="1"/>
-    <col min="36" max="36" width="72.125" style="40" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="72.125" style="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A1" s="28"/>
-      <c r="B1" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32" t="s">
-        <v>24</v>
+      <c r="A1" s="29"/>
+      <c r="B1" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="40"/>
+      <c r="D1" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="E1" s="5">
         <v>1</v>
@@ -1237,15 +1283,15 @@
       <c r="AI1" s="5">
         <v>31</v>
       </c>
-      <c r="AJ1" s="34" t="s">
-        <v>27</v>
+      <c r="AJ1" s="38" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A2" s="28"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1339,26 +1385,26 @@
       <c r="AI2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AJ2" s="34"/>
+      <c r="AJ2" s="38"/>
     </row>
     <row r="3" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="28">
+      <c r="A3" s="29">
         <v>1</v>
       </c>
-      <c r="B3" s="32" t="s">
-        <v>9</v>
+      <c r="B3" s="30" t="s">
+        <v>47</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -1389,13 +1435,13 @@
       <c r="AG3" s="10"/>
       <c r="AH3" s="10"/>
       <c r="AI3" s="10"/>
-      <c r="AJ3" s="35" t="s">
-        <v>39</v>
+      <c r="AJ3" s="31" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="28"/>
-      <c r="B4" s="32"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="11" t="s">
         <v>8</v>
       </c>
@@ -1403,7 +1449,7 @@
         <v>70</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="24"/>
@@ -1435,20 +1481,20 @@
       <c r="AG4" s="14"/>
       <c r="AH4" s="14"/>
       <c r="AI4" s="14"/>
-      <c r="AJ4" s="36"/>
+      <c r="AJ4" s="32"/>
     </row>
     <row r="5" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="29">
+      <c r="A5" s="33">
         <v>2</v>
       </c>
-      <c r="B5" s="33" t="s">
-        <v>10</v>
+      <c r="B5" s="34" t="s">
+        <v>9</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
@@ -1482,12 +1528,12 @@
       <c r="AH5" s="18"/>
       <c r="AI5" s="18"/>
       <c r="AJ5" s="37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="29"/>
-      <c r="B6" s="33"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="19" t="s">
         <v>8</v>
       </c>
@@ -1523,20 +1569,20 @@
       <c r="AG6" s="22"/>
       <c r="AH6" s="22"/>
       <c r="AI6" s="22"/>
-      <c r="AJ6" s="38"/>
+      <c r="AJ6" s="36"/>
     </row>
     <row r="7" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="28">
+      <c r="A7" s="29">
         <v>3</v>
       </c>
-      <c r="B7" s="32" t="s">
-        <v>14</v>
+      <c r="B7" s="30" t="s">
+        <v>44</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -1569,13 +1615,13 @@
       <c r="AG7" s="10"/>
       <c r="AH7" s="10"/>
       <c r="AI7" s="10"/>
-      <c r="AJ7" s="35" t="s">
-        <v>33</v>
+      <c r="AJ7" s="31" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="28"/>
-      <c r="B8" s="32"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="11" t="s">
         <v>8</v>
       </c>
@@ -1611,20 +1657,20 @@
       <c r="AG8" s="14"/>
       <c r="AH8" s="14"/>
       <c r="AI8" s="14"/>
-      <c r="AJ8" s="36"/>
+      <c r="AJ8" s="32"/>
     </row>
     <row r="9" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="29">
+      <c r="A9" s="33">
         <v>4</v>
       </c>
-      <c r="B9" s="33" t="s">
-        <v>12</v>
+      <c r="B9" s="34" t="s">
+        <v>45</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -1657,13 +1703,13 @@
       <c r="AG9" s="18"/>
       <c r="AH9" s="18"/>
       <c r="AI9" s="18"/>
-      <c r="AJ9" s="39" t="s">
-        <v>31</v>
+      <c r="AJ9" s="35" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="29"/>
-      <c r="B10" s="33"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="19" t="s">
         <v>8</v>
       </c>
@@ -1699,20 +1745,20 @@
       <c r="AG10" s="22"/>
       <c r="AH10" s="22"/>
       <c r="AI10" s="22"/>
-      <c r="AJ10" s="38"/>
+      <c r="AJ10" s="36"/>
     </row>
     <row r="11" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="28">
-        <v>5</v>
-      </c>
-      <c r="B11" s="32" t="s">
+      <c r="A11" s="29">
+        <v>3</v>
+      </c>
+      <c r="B11" s="30" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
@@ -1745,13 +1791,13 @@
       <c r="AG11" s="10"/>
       <c r="AH11" s="10"/>
       <c r="AI11" s="10"/>
-      <c r="AJ11" s="35" t="s">
-        <v>34</v>
+      <c r="AJ11" s="31" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="28"/>
-      <c r="B12" s="32"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="11" t="s">
         <v>8</v>
       </c>
@@ -1787,20 +1833,20 @@
       <c r="AG12" s="14"/>
       <c r="AH12" s="14"/>
       <c r="AI12" s="14"/>
-      <c r="AJ12" s="36"/>
+      <c r="AJ12" s="32"/>
     </row>
     <row r="13" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="29">
-        <v>6</v>
-      </c>
-      <c r="B13" s="33" t="s">
+      <c r="A13" s="33">
+        <v>4</v>
+      </c>
+      <c r="B13" s="34" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
@@ -1833,13 +1879,13 @@
       <c r="AG13" s="18"/>
       <c r="AH13" s="18"/>
       <c r="AI13" s="18"/>
-      <c r="AJ13" s="37" t="s">
-        <v>29</v>
+      <c r="AJ13" s="35" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="29"/>
-      <c r="B14" s="33"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="19" t="s">
         <v>8</v>
       </c>
@@ -1875,20 +1921,20 @@
       <c r="AG14" s="22"/>
       <c r="AH14" s="22"/>
       <c r="AI14" s="22"/>
-      <c r="AJ14" s="38"/>
+      <c r="AJ14" s="36"/>
     </row>
     <row r="15" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="28">
-        <v>7</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>20</v>
+      <c r="A15" s="29">
+        <v>5</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>12</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -1921,13 +1967,13 @@
       <c r="AG15" s="10"/>
       <c r="AH15" s="10"/>
       <c r="AI15" s="10"/>
-      <c r="AJ15" s="35" t="s">
-        <v>32</v>
+      <c r="AJ15" s="31" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="28"/>
-      <c r="B16" s="32"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="11" t="s">
         <v>8</v>
       </c>
@@ -1963,20 +2009,20 @@
       <c r="AG16" s="14"/>
       <c r="AH16" s="14"/>
       <c r="AI16" s="14"/>
-      <c r="AJ16" s="36"/>
+      <c r="AJ16" s="32"/>
     </row>
     <row r="17" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="29">
-        <v>8</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>15</v>
+      <c r="A17" s="33">
+        <v>6</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>10</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
@@ -2010,12 +2056,12 @@
       <c r="AH17" s="18"/>
       <c r="AI17" s="18"/>
       <c r="AJ17" s="37" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="29"/>
-      <c r="B18" s="33"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="19" t="s">
         <v>8</v>
       </c>
@@ -2051,20 +2097,20 @@
       <c r="AG18" s="22"/>
       <c r="AH18" s="22"/>
       <c r="AI18" s="22"/>
-      <c r="AJ18" s="38"/>
+      <c r="AJ18" s="36"/>
     </row>
     <row r="19" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="28">
-        <v>9</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>16</v>
+      <c r="A19" s="29">
+        <v>7</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>19</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
@@ -2097,13 +2143,13 @@
       <c r="AG19" s="10"/>
       <c r="AH19" s="10"/>
       <c r="AI19" s="10"/>
-      <c r="AJ19" s="35" t="s">
-        <v>41</v>
+      <c r="AJ19" s="31" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="28"/>
-      <c r="B20" s="32"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="11" t="s">
         <v>8</v>
       </c>
@@ -2139,20 +2185,20 @@
       <c r="AG20" s="14"/>
       <c r="AH20" s="14"/>
       <c r="AI20" s="14"/>
-      <c r="AJ20" s="36"/>
+      <c r="AJ20" s="32"/>
     </row>
     <row r="21" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="29">
-        <v>10</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>21</v>
+      <c r="A21" s="33">
+        <v>8</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>14</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
@@ -2186,12 +2232,12 @@
       <c r="AH21" s="18"/>
       <c r="AI21" s="18"/>
       <c r="AJ21" s="37" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="29"/>
-      <c r="B22" s="33"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="34"/>
       <c r="C22" s="19" t="s">
         <v>8</v>
       </c>
@@ -2227,20 +2273,20 @@
       <c r="AG22" s="22"/>
       <c r="AH22" s="22"/>
       <c r="AI22" s="22"/>
-      <c r="AJ22" s="38"/>
+      <c r="AJ22" s="36"/>
     </row>
     <row r="23" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="28">
-        <v>11</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>17</v>
+      <c r="A23" s="29">
+        <v>9</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>15</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
@@ -2273,11 +2319,13 @@
       <c r="AG23" s="10"/>
       <c r="AH23" s="10"/>
       <c r="AI23" s="10"/>
-      <c r="AJ23" s="35"/>
+      <c r="AJ23" s="31" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="24" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="28"/>
-      <c r="B24" s="32"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="30"/>
       <c r="C24" s="11" t="s">
         <v>8</v>
       </c>
@@ -2313,20 +2361,20 @@
       <c r="AG24" s="14"/>
       <c r="AH24" s="14"/>
       <c r="AI24" s="14"/>
-      <c r="AJ24" s="36"/>
+      <c r="AJ24" s="32"/>
     </row>
     <row r="25" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="29">
-        <v>12</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>18</v>
+      <c r="A25" s="33">
+        <v>10</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>20</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
@@ -2360,12 +2408,12 @@
       <c r="AH25" s="18"/>
       <c r="AI25" s="18"/>
       <c r="AJ25" s="37" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="29"/>
-      <c r="B26" s="33"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="34"/>
       <c r="C26" s="19" t="s">
         <v>8</v>
       </c>
@@ -2401,20 +2449,20 @@
       <c r="AG26" s="22"/>
       <c r="AH26" s="22"/>
       <c r="AI26" s="22"/>
-      <c r="AJ26" s="38"/>
+      <c r="AJ26" s="36"/>
     </row>
     <row r="27" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="28">
-        <v>13</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>23</v>
+      <c r="A27" s="29">
+        <v>11</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>16</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
@@ -2447,13 +2495,11 @@
       <c r="AG27" s="10"/>
       <c r="AH27" s="10"/>
       <c r="AI27" s="10"/>
-      <c r="AJ27" s="35" t="s">
-        <v>30</v>
-      </c>
+      <c r="AJ27" s="31"/>
     </row>
     <row r="28" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="28"/>
-      <c r="B28" s="32"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="30"/>
       <c r="C28" s="11" t="s">
         <v>8</v>
       </c>
@@ -2489,20 +2535,20 @@
       <c r="AG28" s="14"/>
       <c r="AH28" s="14"/>
       <c r="AI28" s="14"/>
-      <c r="AJ28" s="36"/>
+      <c r="AJ28" s="32"/>
     </row>
     <row r="29" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="29">
-        <v>14</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>19</v>
+      <c r="A29" s="33">
+        <v>12</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>17</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
@@ -2536,12 +2582,12 @@
       <c r="AH29" s="18"/>
       <c r="AI29" s="18"/>
       <c r="AJ29" s="37" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="29"/>
-      <c r="B30" s="33"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="34"/>
       <c r="C30" s="19" t="s">
         <v>8</v>
       </c>
@@ -2577,20 +2623,20 @@
       <c r="AG30" s="22"/>
       <c r="AH30" s="22"/>
       <c r="AI30" s="22"/>
-      <c r="AJ30" s="38"/>
+      <c r="AJ30" s="36"/>
     </row>
     <row r="31" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="28">
-        <v>15</v>
-      </c>
-      <c r="B31" s="32" t="s">
-        <v>17</v>
+      <c r="A31" s="29">
+        <v>13</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>22</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
@@ -2623,13 +2669,13 @@
       <c r="AG31" s="10"/>
       <c r="AH31" s="10"/>
       <c r="AI31" s="10"/>
-      <c r="AJ31" s="35" t="s">
-        <v>43</v>
+      <c r="AJ31" s="31" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="28"/>
-      <c r="B32" s="32"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="30"/>
       <c r="C32" s="11" t="s">
         <v>8</v>
       </c>
@@ -2665,20 +2711,20 @@
       <c r="AG32" s="14"/>
       <c r="AH32" s="14"/>
       <c r="AI32" s="14"/>
-      <c r="AJ32" s="36"/>
+      <c r="AJ32" s="32"/>
     </row>
     <row r="33" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="29">
-        <v>16</v>
-      </c>
-      <c r="B33" s="33" t="s">
-        <v>22</v>
+      <c r="A33" s="33">
+        <v>14</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>18</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
@@ -2712,12 +2758,12 @@
       <c r="AH33" s="18"/>
       <c r="AI33" s="18"/>
       <c r="AJ33" s="37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="29"/>
-      <c r="B34" s="33"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="34"/>
       <c r="C34" s="19" t="s">
         <v>8</v>
       </c>
@@ -2753,13 +2799,185 @@
       <c r="AG34" s="22"/>
       <c r="AH34" s="22"/>
       <c r="AI34" s="22"/>
-      <c r="AJ34" s="38"/>
-    </row>
-    <row r="35" spans="1:36" ht="160.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="AJ34" s="36"/>
+    </row>
+    <row r="35" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="29">
+        <v>15</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="23"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="23"/>
+      <c r="W35" s="23"/>
+      <c r="X35" s="9"/>
+      <c r="Y35" s="9"/>
+      <c r="Z35" s="9"/>
+      <c r="AA35" s="9"/>
+      <c r="AB35" s="9"/>
+      <c r="AC35" s="23"/>
+      <c r="AD35" s="25"/>
+      <c r="AE35" s="10"/>
+      <c r="AF35" s="10"/>
+      <c r="AG35" s="10"/>
+      <c r="AH35" s="10"/>
+      <c r="AI35" s="10"/>
+      <c r="AJ35" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="29"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="12"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="13"/>
+      <c r="V36" s="24"/>
+      <c r="W36" s="24"/>
+      <c r="X36" s="13"/>
+      <c r="Y36" s="13"/>
+      <c r="Z36" s="13"/>
+      <c r="AA36" s="13"/>
+      <c r="AB36" s="13"/>
+      <c r="AC36" s="24"/>
+      <c r="AD36" s="26"/>
+      <c r="AE36" s="14"/>
+      <c r="AF36" s="14"/>
+      <c r="AG36" s="14"/>
+      <c r="AH36" s="14"/>
+      <c r="AI36" s="14"/>
+      <c r="AJ36" s="32"/>
+    </row>
+    <row r="37" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="33">
+        <v>16</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="23"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="17"/>
+      <c r="V37" s="23"/>
+      <c r="W37" s="23"/>
+      <c r="X37" s="17"/>
+      <c r="Y37" s="17"/>
+      <c r="Z37" s="17"/>
+      <c r="AA37" s="17"/>
+      <c r="AB37" s="17"/>
+      <c r="AC37" s="23"/>
+      <c r="AD37" s="25"/>
+      <c r="AE37" s="18"/>
+      <c r="AF37" s="18"/>
+      <c r="AG37" s="18"/>
+      <c r="AH37" s="18"/>
+      <c r="AI37" s="18"/>
+      <c r="AJ37" s="37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="33"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="20"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="21"/>
+      <c r="R38" s="21"/>
+      <c r="S38" s="21"/>
+      <c r="T38" s="21"/>
+      <c r="U38" s="21"/>
+      <c r="V38" s="24"/>
+      <c r="W38" s="24"/>
+      <c r="X38" s="21"/>
+      <c r="Y38" s="21"/>
+      <c r="Z38" s="21"/>
+      <c r="AA38" s="21"/>
+      <c r="AB38" s="21"/>
+      <c r="AC38" s="24"/>
+      <c r="AD38" s="26"/>
+      <c r="AE38" s="22"/>
+      <c r="AF38" s="22"/>
+      <c r="AG38" s="22"/>
+      <c r="AH38" s="22"/>
+      <c r="AI38" s="22"/>
+      <c r="AJ38" s="36"/>
+    </row>
+    <row r="39" spans="1:36" ht="160.5" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="40" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="41" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="42" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2773,24 +2991,28 @@
     <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <mergeCells count="53">
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B31:B32"/>
+  <mergeCells count="59">
     <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B37:B38"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
     <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A35:A36"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A25:A26"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
@@ -2800,34 +3022,40 @@
     <mergeCell ref="AJ1:AJ2"/>
     <mergeCell ref="AJ3:AJ4"/>
     <mergeCell ref="AJ5:AJ6"/>
-    <mergeCell ref="AJ7:AJ8"/>
-    <mergeCell ref="AJ9:AJ10"/>
-    <mergeCell ref="AJ23:AJ24"/>
+    <mergeCell ref="AJ11:AJ12"/>
+    <mergeCell ref="AJ13:AJ14"/>
+    <mergeCell ref="AJ27:AJ28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A7:A8"/>
     <mergeCell ref="A5:A6"/>
-    <mergeCell ref="AJ11:AJ12"/>
+    <mergeCell ref="AJ15:AJ16"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A25:A26"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A13:A14"/>
     <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="AJ13:AJ14"/>
-    <mergeCell ref="AJ15:AJ16"/>
     <mergeCell ref="AJ17:AJ18"/>
     <mergeCell ref="AJ19:AJ20"/>
     <mergeCell ref="AJ21:AJ22"/>
+    <mergeCell ref="AJ23:AJ24"/>
     <mergeCell ref="AJ25:AJ26"/>
-    <mergeCell ref="AJ27:AJ28"/>
     <mergeCell ref="AJ29:AJ30"/>
     <mergeCell ref="AJ31:AJ32"/>
     <mergeCell ref="AJ33:AJ34"/>
+    <mergeCell ref="AJ35:AJ36"/>
+    <mergeCell ref="AJ37:AJ38"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="AJ7:AJ8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="AJ9:AJ10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/000_WBS.xlsx
+++ b/doc/000_WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gw\202405\dev\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B62623-D107-46C8-97EB-61304A2ACAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0CE544-F416-4A09-913F-F29CF23C1657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1590" yWindow="645" windowWidth="25095" windowHeight="14385" xr2:uid="{A0E9BA3F-02FD-48E1-AEF6-660A2CDC8575}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="49">
   <si>
     <t>火</t>
     <rPh sb="0" eb="1">
@@ -536,34 +536,50 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ローカル環境で行い。AWS移行時は差分を確認することで対応</t>
-    <rPh sb="4" eb="6">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>イコウジ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>サブン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>タイオウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>見積もりまで諸々</t>
     <rPh sb="0" eb="2">
       <t>ミツ</t>
     </rPh>
     <rPh sb="6" eb="8">
       <t>モロモロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■</t>
+  </si>
+  <si>
+    <t>ローカル環境で行い。AWS移行時は差分を確認することで対応
+EntitiyManagerは使用せずRepositoryを直接JPA、React連携はFluxを使用</t>
+    <rPh sb="4" eb="6">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>イコウジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サブン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>レンケイ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -572,7 +588,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -605,18 +621,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="8" tint="0.39997558519241921"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.499984740745262"/>
       <name val="游ゴシック"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -726,7 +758,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -808,46 +840,52 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1167,7 +1205,7 @@
   <dimension ref="A1:AJ56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B8"/>
+      <selection activeCell="AD13" sqref="AD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1178,16 +1216,16 @@
     <col min="4" max="4" width="4.5" style="4" customWidth="1"/>
     <col min="5" max="29" width="3.125" style="1" customWidth="1"/>
     <col min="30" max="35" width="3.125" customWidth="1"/>
-    <col min="36" max="36" width="72.125" style="28" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="72.125" style="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A1" s="29"/>
-      <c r="B1" s="39" t="s">
+      <c r="A1" s="31"/>
+      <c r="B1" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="30" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="28" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="5">
@@ -1283,15 +1321,15 @@
       <c r="AI1" s="5">
         <v>31</v>
       </c>
-      <c r="AJ1" s="38" t="s">
+      <c r="AJ1" s="34" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A2" s="29"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="30"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="28"/>
       <c r="E2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1385,14 +1423,14 @@
       <c r="AI2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AJ2" s="38"/>
+      <c r="AJ2" s="34"/>
     </row>
     <row r="3" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="29">
+      <c r="A3" s="31">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
-        <v>47</v>
+      <c r="B3" s="28" t="s">
+        <v>46</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>7</v>
@@ -1435,23 +1473,25 @@
       <c r="AG3" s="10"/>
       <c r="AH3" s="10"/>
       <c r="AI3" s="10"/>
-      <c r="AJ3" s="31" t="s">
+      <c r="AJ3" s="35" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="12">
-        <v>70</v>
-      </c>
-      <c r="E4" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="13"/>
+      <c r="F4" s="40" t="s">
+        <v>27</v>
+      </c>
       <c r="G4" s="24"/>
       <c r="H4" s="24"/>
       <c r="I4" s="24"/>
@@ -1459,7 +1499,7 @@
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
+      <c r="N4" s="42"/>
       <c r="O4" s="24"/>
       <c r="P4" s="24"/>
       <c r="Q4" s="13"/>
@@ -1481,13 +1521,13 @@
       <c r="AG4" s="14"/>
       <c r="AH4" s="14"/>
       <c r="AI4" s="14"/>
-      <c r="AJ4" s="32"/>
+      <c r="AJ4" s="36"/>
     </row>
     <row r="5" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="33">
+      <c r="A5" s="30">
         <v>2</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="29" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -1497,7 +1537,9 @@
         <v>24</v>
       </c>
       <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
+      <c r="F5" s="17" t="s">
+        <v>27</v>
+      </c>
       <c r="G5" s="23"/>
       <c r="H5" s="23"/>
       <c r="I5" s="23"/>
@@ -1532,14 +1574,18 @@
       </c>
     </row>
     <row r="6" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="33"/>
-      <c r="B6" s="34"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="20"/>
+      <c r="D6" s="20">
+        <v>100</v>
+      </c>
       <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
+      <c r="F6" s="41" t="s">
+        <v>27</v>
+      </c>
       <c r="G6" s="24"/>
       <c r="H6" s="24"/>
       <c r="I6" s="24"/>
@@ -1569,13 +1615,13 @@
       <c r="AG6" s="22"/>
       <c r="AH6" s="22"/>
       <c r="AI6" s="22"/>
-      <c r="AJ6" s="36"/>
+      <c r="AJ6" s="38"/>
     </row>
     <row r="7" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="29">
+      <c r="A7" s="31">
         <v>3</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="28" t="s">
         <v>44</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -1590,7 +1636,9 @@
       <c r="H7" s="23"/>
       <c r="I7" s="23"/>
       <c r="J7" s="23"/>
-      <c r="K7" s="9"/>
+      <c r="K7" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
@@ -1615,13 +1663,13 @@
       <c r="AG7" s="10"/>
       <c r="AH7" s="10"/>
       <c r="AI7" s="10"/>
-      <c r="AJ7" s="31" t="s">
+      <c r="AJ7" s="35" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="29"/>
-      <c r="B8" s="30"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="11" t="s">
         <v>8</v>
       </c>
@@ -1657,13 +1705,13 @@
       <c r="AG8" s="14"/>
       <c r="AH8" s="14"/>
       <c r="AI8" s="14"/>
-      <c r="AJ8" s="32"/>
+      <c r="AJ8" s="36"/>
     </row>
     <row r="9" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="33">
+      <c r="A9" s="30">
         <v>4</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="29" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="15" t="s">
@@ -1678,7 +1726,9 @@
       <c r="H9" s="23"/>
       <c r="I9" s="23"/>
       <c r="J9" s="23"/>
-      <c r="K9" s="17"/>
+      <c r="K9" s="17" t="s">
+        <v>27</v>
+      </c>
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
@@ -1703,24 +1753,28 @@
       <c r="AG9" s="18"/>
       <c r="AH9" s="18"/>
       <c r="AI9" s="18"/>
-      <c r="AJ9" s="35" t="s">
-        <v>46</v>
+      <c r="AJ9" s="39" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="33"/>
-      <c r="B10" s="34"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="20"/>
+      <c r="D10" s="20">
+        <v>70</v>
+      </c>
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
       <c r="G10" s="24"/>
       <c r="H10" s="24"/>
       <c r="I10" s="24"/>
       <c r="J10" s="24"/>
-      <c r="K10" s="21"/>
+      <c r="K10" s="41" t="s">
+        <v>27</v>
+      </c>
       <c r="L10" s="21"/>
       <c r="M10" s="21"/>
       <c r="N10" s="21"/>
@@ -1745,13 +1799,13 @@
       <c r="AG10" s="22"/>
       <c r="AH10" s="22"/>
       <c r="AI10" s="22"/>
-      <c r="AJ10" s="36"/>
+      <c r="AJ10" s="38"/>
     </row>
     <row r="11" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="29">
+      <c r="A11" s="31">
         <v>3</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="28" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -1766,7 +1820,9 @@
       <c r="H11" s="23"/>
       <c r="I11" s="23"/>
       <c r="J11" s="23"/>
-      <c r="K11" s="9"/>
+      <c r="K11" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
@@ -1791,13 +1847,13 @@
       <c r="AG11" s="10"/>
       <c r="AH11" s="10"/>
       <c r="AI11" s="10"/>
-      <c r="AJ11" s="31" t="s">
+      <c r="AJ11" s="35" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="29"/>
-      <c r="B12" s="30"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="11" t="s">
         <v>8</v>
       </c>
@@ -1833,13 +1889,13 @@
       <c r="AG12" s="14"/>
       <c r="AH12" s="14"/>
       <c r="AI12" s="14"/>
-      <c r="AJ12" s="32"/>
+      <c r="AJ12" s="36"/>
     </row>
     <row r="13" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="33">
+      <c r="A13" s="30">
         <v>4</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="15" t="s">
@@ -1854,7 +1910,9 @@
       <c r="H13" s="23"/>
       <c r="I13" s="23"/>
       <c r="J13" s="23"/>
-      <c r="K13" s="17"/>
+      <c r="K13" s="17" t="s">
+        <v>47</v>
+      </c>
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
       <c r="N13" s="17"/>
@@ -1879,13 +1937,13 @@
       <c r="AG13" s="18"/>
       <c r="AH13" s="18"/>
       <c r="AI13" s="18"/>
-      <c r="AJ13" s="35" t="s">
+      <c r="AJ13" s="39" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="33"/>
-      <c r="B14" s="34"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="29"/>
       <c r="C14" s="19" t="s">
         <v>8</v>
       </c>
@@ -1921,13 +1979,13 @@
       <c r="AG14" s="22"/>
       <c r="AH14" s="22"/>
       <c r="AI14" s="22"/>
-      <c r="AJ14" s="36"/>
+      <c r="AJ14" s="38"/>
     </row>
     <row r="15" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="29">
+      <c r="A15" s="31">
         <v>5</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="28" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -1943,7 +2001,9 @@
       <c r="I15" s="23"/>
       <c r="J15" s="23"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
+      <c r="L15" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
       <c r="O15" s="23"/>
@@ -1967,13 +2027,13 @@
       <c r="AG15" s="10"/>
       <c r="AH15" s="10"/>
       <c r="AI15" s="10"/>
-      <c r="AJ15" s="31" t="s">
+      <c r="AJ15" s="35" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="11" t="s">
         <v>8</v>
       </c>
@@ -2009,13 +2069,13 @@
       <c r="AG16" s="14"/>
       <c r="AH16" s="14"/>
       <c r="AI16" s="14"/>
-      <c r="AJ16" s="32"/>
+      <c r="AJ16" s="36"/>
     </row>
     <row r="17" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="33">
+      <c r="A17" s="30">
         <v>6</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="29" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="15" t="s">
@@ -2031,9 +2091,15 @@
       <c r="I17" s="23"/>
       <c r="J17" s="23"/>
       <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
+      <c r="L17" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="M17" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="N17" s="17" t="s">
+        <v>47</v>
+      </c>
       <c r="O17" s="23"/>
       <c r="P17" s="23"/>
       <c r="Q17" s="17"/>
@@ -2060,8 +2126,8 @@
       </c>
     </row>
     <row r="18" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="33"/>
-      <c r="B18" s="34"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="19" t="s">
         <v>8</v>
       </c>
@@ -2097,13 +2163,13 @@
       <c r="AG18" s="22"/>
       <c r="AH18" s="22"/>
       <c r="AI18" s="22"/>
-      <c r="AJ18" s="36"/>
+      <c r="AJ18" s="38"/>
     </row>
     <row r="19" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="29">
+      <c r="A19" s="31">
         <v>7</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -2121,7 +2187,9 @@
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
+      <c r="N19" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="O19" s="23"/>
       <c r="P19" s="23"/>
       <c r="Q19" s="9"/>
@@ -2143,13 +2211,13 @@
       <c r="AG19" s="10"/>
       <c r="AH19" s="10"/>
       <c r="AI19" s="10"/>
-      <c r="AJ19" s="31" t="s">
+      <c r="AJ19" s="35" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="29"/>
-      <c r="B20" s="30"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="11" t="s">
         <v>8</v>
       </c>
@@ -2185,13 +2253,13 @@
       <c r="AG20" s="14"/>
       <c r="AH20" s="14"/>
       <c r="AI20" s="14"/>
-      <c r="AJ20" s="32"/>
+      <c r="AJ20" s="36"/>
     </row>
     <row r="21" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="33">
+      <c r="A21" s="30">
         <v>8</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="29" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="15" t="s">
@@ -2212,10 +2280,18 @@
       <c r="N21" s="17"/>
       <c r="O21" s="23"/>
       <c r="P21" s="23"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="17"/>
+      <c r="Q21" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="R21" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="S21" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="T21" s="17" t="s">
+        <v>47</v>
+      </c>
       <c r="U21" s="17"/>
       <c r="V21" s="23"/>
       <c r="W21" s="23"/>
@@ -2236,8 +2312,8 @@
       </c>
     </row>
     <row r="22" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="33"/>
-      <c r="B22" s="34"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="29"/>
       <c r="C22" s="19" t="s">
         <v>8</v>
       </c>
@@ -2273,13 +2349,13 @@
       <c r="AG22" s="22"/>
       <c r="AH22" s="22"/>
       <c r="AI22" s="22"/>
-      <c r="AJ22" s="36"/>
+      <c r="AJ22" s="38"/>
     </row>
     <row r="23" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="29">
+      <c r="A23" s="31">
         <v>9</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -2303,12 +2379,20 @@
       <c r="Q23" s="9"/>
       <c r="R23" s="9"/>
       <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
+      <c r="T23" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="U23" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="V23" s="23"/>
       <c r="W23" s="23"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
+      <c r="X23" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y23" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="Z23" s="9"/>
       <c r="AA23" s="9"/>
       <c r="AB23" s="9"/>
@@ -2319,13 +2403,13 @@
       <c r="AG23" s="10"/>
       <c r="AH23" s="10"/>
       <c r="AI23" s="10"/>
-      <c r="AJ23" s="31" t="s">
+      <c r="AJ23" s="35" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="29"/>
-      <c r="B24" s="30"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="11" t="s">
         <v>8</v>
       </c>
@@ -2361,13 +2445,13 @@
       <c r="AG24" s="14"/>
       <c r="AH24" s="14"/>
       <c r="AI24" s="14"/>
-      <c r="AJ24" s="32"/>
+      <c r="AJ24" s="36"/>
     </row>
     <row r="25" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="33">
+      <c r="A25" s="30">
         <v>10</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="29" t="s">
         <v>20</v>
       </c>
       <c r="C25" s="15" t="s">
@@ -2396,7 +2480,9 @@
       <c r="V25" s="23"/>
       <c r="W25" s="23"/>
       <c r="X25" s="17"/>
-      <c r="Y25" s="17"/>
+      <c r="Y25" s="17" t="s">
+        <v>47</v>
+      </c>
       <c r="Z25" s="17"/>
       <c r="AA25" s="17"/>
       <c r="AB25" s="17"/>
@@ -2412,8 +2498,8 @@
       </c>
     </row>
     <row r="26" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="33"/>
-      <c r="B26" s="34"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="29"/>
       <c r="C26" s="19" t="s">
         <v>8</v>
       </c>
@@ -2449,13 +2535,13 @@
       <c r="AG26" s="22"/>
       <c r="AH26" s="22"/>
       <c r="AI26" s="22"/>
-      <c r="AJ26" s="36"/>
+      <c r="AJ26" s="38"/>
     </row>
     <row r="27" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="29">
+      <c r="A27" s="31">
         <v>11</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -2485,8 +2571,12 @@
       <c r="W27" s="23"/>
       <c r="X27" s="9"/>
       <c r="Y27" s="9"/>
-      <c r="Z27" s="9"/>
-      <c r="AA27" s="9"/>
+      <c r="Z27" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA27" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="AB27" s="9"/>
       <c r="AC27" s="23"/>
       <c r="AD27" s="25"/>
@@ -2495,11 +2585,11 @@
       <c r="AG27" s="10"/>
       <c r="AH27" s="10"/>
       <c r="AI27" s="10"/>
-      <c r="AJ27" s="31"/>
+      <c r="AJ27" s="35"/>
     </row>
     <row r="28" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="29"/>
-      <c r="B28" s="30"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="28"/>
       <c r="C28" s="11" t="s">
         <v>8</v>
       </c>
@@ -2535,13 +2625,13 @@
       <c r="AG28" s="14"/>
       <c r="AH28" s="14"/>
       <c r="AI28" s="14"/>
-      <c r="AJ28" s="32"/>
+      <c r="AJ28" s="36"/>
     </row>
     <row r="29" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="33">
+      <c r="A29" s="30">
         <v>12</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C29" s="15" t="s">
@@ -2573,7 +2663,9 @@
       <c r="Y29" s="17"/>
       <c r="Z29" s="17"/>
       <c r="AA29" s="17"/>
-      <c r="AB29" s="17"/>
+      <c r="AB29" s="17" t="s">
+        <v>47</v>
+      </c>
       <c r="AC29" s="23"/>
       <c r="AD29" s="25"/>
       <c r="AE29" s="18"/>
@@ -2586,8 +2678,8 @@
       </c>
     </row>
     <row r="30" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="33"/>
-      <c r="B30" s="34"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="29"/>
       <c r="C30" s="19" t="s">
         <v>8</v>
       </c>
@@ -2623,13 +2715,13 @@
       <c r="AG30" s="22"/>
       <c r="AH30" s="22"/>
       <c r="AI30" s="22"/>
-      <c r="AJ30" s="36"/>
+      <c r="AJ30" s="38"/>
     </row>
     <row r="31" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="29">
+      <c r="A31" s="31">
         <v>13</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C31" s="7" t="s">
@@ -2664,18 +2756,24 @@
       <c r="AB31" s="9"/>
       <c r="AC31" s="23"/>
       <c r="AD31" s="25"/>
-      <c r="AE31" s="10"/>
-      <c r="AF31" s="10"/>
-      <c r="AG31" s="10"/>
+      <c r="AE31" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF31" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG31" s="10" t="s">
+        <v>47</v>
+      </c>
       <c r="AH31" s="10"/>
       <c r="AI31" s="10"/>
-      <c r="AJ31" s="31" t="s">
+      <c r="AJ31" s="35" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="29"/>
-      <c r="B32" s="30"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="28"/>
       <c r="C32" s="11" t="s">
         <v>8</v>
       </c>
@@ -2711,13 +2809,13 @@
       <c r="AG32" s="14"/>
       <c r="AH32" s="14"/>
       <c r="AI32" s="14"/>
-      <c r="AJ32" s="32"/>
+      <c r="AJ32" s="36"/>
     </row>
     <row r="33" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="33">
+      <c r="A33" s="30">
         <v>14</v>
       </c>
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="15" t="s">
@@ -2753,17 +2851,23 @@
       <c r="AC33" s="23"/>
       <c r="AD33" s="25"/>
       <c r="AE33" s="18"/>
-      <c r="AF33" s="18"/>
-      <c r="AG33" s="18"/>
-      <c r="AH33" s="18"/>
+      <c r="AF33" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG33" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH33" s="18" t="s">
+        <v>47</v>
+      </c>
       <c r="AI33" s="18"/>
       <c r="AJ33" s="37" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="33"/>
-      <c r="B34" s="34"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="29"/>
       <c r="C34" s="19" t="s">
         <v>8</v>
       </c>
@@ -2799,13 +2903,13 @@
       <c r="AG34" s="22"/>
       <c r="AH34" s="22"/>
       <c r="AI34" s="22"/>
-      <c r="AJ34" s="36"/>
+      <c r="AJ34" s="38"/>
     </row>
     <row r="35" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="29">
+      <c r="A35" s="31">
         <v>15</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C35" s="7" t="s">
@@ -2843,15 +2947,19 @@
       <c r="AE35" s="10"/>
       <c r="AF35" s="10"/>
       <c r="AG35" s="10"/>
-      <c r="AH35" s="10"/>
-      <c r="AI35" s="10"/>
-      <c r="AJ35" s="31" t="s">
+      <c r="AH35" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI35" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ35" s="35" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="29"/>
-      <c r="B36" s="30"/>
+      <c r="A36" s="31"/>
+      <c r="B36" s="28"/>
       <c r="C36" s="11" t="s">
         <v>8</v>
       </c>
@@ -2887,13 +2995,13 @@
       <c r="AG36" s="14"/>
       <c r="AH36" s="14"/>
       <c r="AI36" s="14"/>
-      <c r="AJ36" s="32"/>
+      <c r="AJ36" s="36"/>
     </row>
     <row r="37" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="33">
+      <c r="A37" s="30">
         <v>16</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="29" t="s">
         <v>21</v>
       </c>
       <c r="C37" s="15" t="s">
@@ -2932,14 +3040,16 @@
       <c r="AF37" s="18"/>
       <c r="AG37" s="18"/>
       <c r="AH37" s="18"/>
-      <c r="AI37" s="18"/>
+      <c r="AI37" s="18" t="s">
+        <v>47</v>
+      </c>
       <c r="AJ37" s="37" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="33"/>
-      <c r="B38" s="34"/>
+      <c r="A38" s="30"/>
+      <c r="B38" s="29"/>
       <c r="C38" s="19" t="s">
         <v>8</v>
       </c>
@@ -2975,7 +3085,7 @@
       <c r="AG38" s="22"/>
       <c r="AH38" s="22"/>
       <c r="AI38" s="22"/>
-      <c r="AJ38" s="36"/>
+      <c r="AJ38" s="38"/>
     </row>
     <row r="39" spans="1:36" ht="160.5" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="40" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2997,33 +3107,22 @@
     <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="AJ1:AJ2"/>
-    <mergeCell ref="AJ3:AJ4"/>
-    <mergeCell ref="AJ5:AJ6"/>
-    <mergeCell ref="AJ11:AJ12"/>
-    <mergeCell ref="AJ13:AJ14"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="AJ7:AJ8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="AJ9:AJ10"/>
+    <mergeCell ref="AJ29:AJ30"/>
+    <mergeCell ref="AJ31:AJ32"/>
+    <mergeCell ref="AJ33:AJ34"/>
+    <mergeCell ref="AJ35:AJ36"/>
+    <mergeCell ref="AJ37:AJ38"/>
+    <mergeCell ref="AJ17:AJ18"/>
+    <mergeCell ref="AJ19:AJ20"/>
+    <mergeCell ref="AJ21:AJ22"/>
+    <mergeCell ref="AJ23:AJ24"/>
+    <mergeCell ref="AJ25:AJ26"/>
     <mergeCell ref="AJ27:AJ28"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A13:A14"/>
@@ -3040,22 +3139,33 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B14"/>
-    <mergeCell ref="AJ17:AJ18"/>
-    <mergeCell ref="AJ19:AJ20"/>
-    <mergeCell ref="AJ21:AJ22"/>
-    <mergeCell ref="AJ23:AJ24"/>
-    <mergeCell ref="AJ25:AJ26"/>
-    <mergeCell ref="AJ29:AJ30"/>
-    <mergeCell ref="AJ31:AJ32"/>
-    <mergeCell ref="AJ33:AJ34"/>
-    <mergeCell ref="AJ35:AJ36"/>
-    <mergeCell ref="AJ37:AJ38"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="AJ7:AJ8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="AJ9:AJ10"/>
+    <mergeCell ref="AJ1:AJ2"/>
+    <mergeCell ref="AJ3:AJ4"/>
+    <mergeCell ref="AJ5:AJ6"/>
+    <mergeCell ref="AJ11:AJ12"/>
+    <mergeCell ref="AJ13:AJ14"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/000_WBS.xlsx
+++ b/doc/000_WBS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gw\202405\dev\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0CE544-F416-4A09-913F-F29CF23C1657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17525B87-46F8-4116-A54F-02D3A2D62B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1590" yWindow="645" windowWidth="25095" windowHeight="14385" xr2:uid="{A0E9BA3F-02FD-48E1-AEF6-660A2CDC8575}"/>
+    <workbookView xWindow="-25620" yWindow="2220" windowWidth="25095" windowHeight="14385" xr2:uid="{A0E9BA3F-02FD-48E1-AEF6-660A2CDC8575}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="48">
   <si>
     <t>火</t>
     <rPh sb="0" eb="1">
@@ -229,16 +229,6 @@
   </si>
   <si>
     <t>■</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DBはsqlite等の予定</t>
-    <rPh sb="9" eb="10">
-      <t>ナド</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヨテイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -302,13 +292,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DB Browser等でエントリ</t>
-    <rPh sb="10" eb="11">
-      <t>ナド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>各種マスメン/入庫/出庫/在庫確認</t>
     <rPh sb="0" eb="2">
       <t>カクシュ</t>
@@ -516,16 +499,6 @@
   </si>
   <si>
     <t>テキストエディタ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>機能要件</t>
-    <rPh sb="0" eb="2">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヨウケン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -580,6 +553,29 @@
     </rPh>
     <rPh sb="79" eb="81">
       <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBはpostgerSQL等の予定</t>
+    <rPh sb="13" eb="14">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能要件※省略</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウリャク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -843,49 +839,49 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1205,7 +1201,7 @@
   <dimension ref="A1:AJ56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AD13" sqref="AD13"/>
+      <selection activeCell="AJ25" sqref="AJ25:AJ26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1221,11 +1217,11 @@
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A1" s="31"/>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="28" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="32" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="5">
@@ -1321,15 +1317,15 @@
       <c r="AI1" s="5">
         <v>31</v>
       </c>
-      <c r="AJ1" s="34" t="s">
+      <c r="AJ1" s="40" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="28"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="32"/>
       <c r="E2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1423,14 +1419,14 @@
       <c r="AI2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AJ2" s="34"/>
+      <c r="AJ2" s="40"/>
     </row>
     <row r="3" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="31">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>46</v>
+      <c r="B3" s="32" t="s">
+        <v>43</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>7</v>
@@ -1473,23 +1469,23 @@
       <c r="AG3" s="10"/>
       <c r="AH3" s="10"/>
       <c r="AI3" s="10"/>
-      <c r="AJ3" s="35" t="s">
-        <v>38</v>
+      <c r="AJ3" s="33" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="31"/>
-      <c r="B4" s="28"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="12">
         <v>100</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="28" t="s">
         <v>27</v>
       </c>
       <c r="G4" s="24"/>
@@ -1499,7 +1495,7 @@
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13"/>
-      <c r="N4" s="42"/>
+      <c r="N4" s="30"/>
       <c r="O4" s="24"/>
       <c r="P4" s="24"/>
       <c r="Q4" s="13"/>
@@ -1521,13 +1517,13 @@
       <c r="AG4" s="14"/>
       <c r="AH4" s="14"/>
       <c r="AI4" s="14"/>
-      <c r="AJ4" s="36"/>
+      <c r="AJ4" s="34"/>
     </row>
     <row r="5" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="30">
+      <c r="A5" s="35">
         <v>2</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="36" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -1569,13 +1565,13 @@
       <c r="AG5" s="18"/>
       <c r="AH5" s="18"/>
       <c r="AI5" s="18"/>
-      <c r="AJ5" s="37" t="s">
-        <v>37</v>
+      <c r="AJ5" s="39" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="30"/>
-      <c r="B6" s="29"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="19" t="s">
         <v>8</v>
       </c>
@@ -1583,7 +1579,7 @@
         <v>100</v>
       </c>
       <c r="E6" s="21"/>
-      <c r="F6" s="41" t="s">
+      <c r="F6" s="29" t="s">
         <v>27</v>
       </c>
       <c r="G6" s="24"/>
@@ -1621,8 +1617,8 @@
       <c r="A7" s="31">
         <v>3</v>
       </c>
-      <c r="B7" s="28" t="s">
-        <v>44</v>
+      <c r="B7" s="32" t="s">
+        <v>47</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>7</v>
@@ -1663,13 +1659,13 @@
       <c r="AG7" s="10"/>
       <c r="AH7" s="10"/>
       <c r="AI7" s="10"/>
-      <c r="AJ7" s="35" t="s">
-        <v>43</v>
+      <c r="AJ7" s="33" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="31"/>
-      <c r="B8" s="28"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="11" t="s">
         <v>8</v>
       </c>
@@ -1705,14 +1701,14 @@
       <c r="AG8" s="14"/>
       <c r="AH8" s="14"/>
       <c r="AI8" s="14"/>
-      <c r="AJ8" s="36"/>
+      <c r="AJ8" s="34"/>
     </row>
     <row r="9" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="30">
+      <c r="A9" s="35">
         <v>4</v>
       </c>
-      <c r="B9" s="29" t="s">
-        <v>45</v>
+      <c r="B9" s="36" t="s">
+        <v>42</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>7</v>
@@ -1753,18 +1749,18 @@
       <c r="AG9" s="18"/>
       <c r="AH9" s="18"/>
       <c r="AI9" s="18"/>
-      <c r="AJ9" s="39" t="s">
-        <v>48</v>
+      <c r="AJ9" s="37" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="30"/>
-      <c r="B10" s="29"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="20">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
@@ -1772,7 +1768,7 @@
       <c r="H10" s="24"/>
       <c r="I10" s="24"/>
       <c r="J10" s="24"/>
-      <c r="K10" s="41" t="s">
+      <c r="K10" s="29" t="s">
         <v>27</v>
       </c>
       <c r="L10" s="21"/>
@@ -1805,7 +1801,7 @@
       <c r="A11" s="31">
         <v>3</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="32" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -1821,7 +1817,7 @@
       <c r="I11" s="23"/>
       <c r="J11" s="23"/>
       <c r="K11" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
@@ -1847,24 +1843,28 @@
       <c r="AG11" s="10"/>
       <c r="AH11" s="10"/>
       <c r="AI11" s="10"/>
-      <c r="AJ11" s="35" t="s">
-        <v>32</v>
+      <c r="AJ11" s="33" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="31"/>
-      <c r="B12" s="28"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="12">
+        <v>80</v>
+      </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
       <c r="I12" s="24"/>
       <c r="J12" s="24"/>
-      <c r="K12" s="13"/>
+      <c r="K12" s="28" t="s">
+        <v>27</v>
+      </c>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
@@ -1889,13 +1889,13 @@
       <c r="AG12" s="14"/>
       <c r="AH12" s="14"/>
       <c r="AI12" s="14"/>
-      <c r="AJ12" s="36"/>
+      <c r="AJ12" s="34"/>
     </row>
     <row r="13" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="30">
+      <c r="A13" s="35">
         <v>4</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="36" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="15" t="s">
@@ -1911,7 +1911,7 @@
       <c r="I13" s="23"/>
       <c r="J13" s="23"/>
       <c r="K13" s="17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
@@ -1937,24 +1937,28 @@
       <c r="AG13" s="18"/>
       <c r="AH13" s="18"/>
       <c r="AI13" s="18"/>
-      <c r="AJ13" s="39" t="s">
-        <v>30</v>
+      <c r="AJ13" s="37" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="30"/>
-      <c r="B14" s="29"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="20"/>
+      <c r="D14" s="20">
+        <v>80</v>
+      </c>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
       <c r="G14" s="24"/>
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
-      <c r="K14" s="21"/>
+      <c r="K14" s="29" t="s">
+        <v>27</v>
+      </c>
       <c r="L14" s="21"/>
       <c r="M14" s="21"/>
       <c r="N14" s="21"/>
@@ -1985,7 +1989,7 @@
       <c r="A15" s="31">
         <v>5</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="32" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -2002,7 +2006,7 @@
       <c r="J15" s="23"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
@@ -2027,24 +2031,28 @@
       <c r="AG15" s="10"/>
       <c r="AH15" s="10"/>
       <c r="AI15" s="10"/>
-      <c r="AJ15" s="35" t="s">
-        <v>33</v>
+      <c r="AJ15" s="33" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="31"/>
-      <c r="B16" s="28"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="12"/>
+      <c r="D16" s="12">
+        <v>50</v>
+      </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="24"/>
       <c r="H16" s="24"/>
       <c r="I16" s="24"/>
       <c r="J16" s="24"/>
-      <c r="K16" s="13"/>
+      <c r="K16" s="28" t="s">
+        <v>27</v>
+      </c>
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
@@ -2069,13 +2077,13 @@
       <c r="AG16" s="14"/>
       <c r="AH16" s="14"/>
       <c r="AI16" s="14"/>
-      <c r="AJ16" s="36"/>
+      <c r="AJ16" s="34"/>
     </row>
     <row r="17" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="30">
+      <c r="A17" s="35">
         <v>6</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="36" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="15" t="s">
@@ -2092,13 +2100,13 @@
       <c r="J17" s="23"/>
       <c r="K17" s="17"/>
       <c r="L17" s="17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M17" s="17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N17" s="17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O17" s="23"/>
       <c r="P17" s="23"/>
@@ -2121,13 +2129,13 @@
       <c r="AG17" s="18"/>
       <c r="AH17" s="18"/>
       <c r="AI17" s="18"/>
-      <c r="AJ17" s="37" t="s">
-        <v>28</v>
+      <c r="AJ17" s="39" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="30"/>
-      <c r="B18" s="29"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="36"/>
       <c r="C18" s="19" t="s">
         <v>8</v>
       </c>
@@ -2169,7 +2177,7 @@
       <c r="A19" s="31">
         <v>7</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="32" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -2211,13 +2219,11 @@
       <c r="AG19" s="10"/>
       <c r="AH19" s="10"/>
       <c r="AI19" s="10"/>
-      <c r="AJ19" s="35" t="s">
-        <v>31</v>
-      </c>
+      <c r="AJ19" s="33"/>
     </row>
     <row r="20" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="31"/>
-      <c r="B20" s="28"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="11" t="s">
         <v>8</v>
       </c>
@@ -2253,13 +2259,13 @@
       <c r="AG20" s="14"/>
       <c r="AH20" s="14"/>
       <c r="AI20" s="14"/>
-      <c r="AJ20" s="36"/>
+      <c r="AJ20" s="34"/>
     </row>
     <row r="21" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="30">
+      <c r="A21" s="35">
         <v>8</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="36" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="15" t="s">
@@ -2281,16 +2287,16 @@
       <c r="O21" s="23"/>
       <c r="P21" s="23"/>
       <c r="Q21" s="17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R21" s="17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="S21" s="17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="T21" s="17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="U21" s="17"/>
       <c r="V21" s="23"/>
@@ -2307,13 +2313,13 @@
       <c r="AG21" s="18"/>
       <c r="AH21" s="18"/>
       <c r="AI21" s="18"/>
-      <c r="AJ21" s="37" t="s">
-        <v>39</v>
+      <c r="AJ21" s="39" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="30"/>
-      <c r="B22" s="29"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="36"/>
       <c r="C22" s="19" t="s">
         <v>8</v>
       </c>
@@ -2355,7 +2361,7 @@
       <c r="A23" s="31">
         <v>9</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="32" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -2380,18 +2386,18 @@
       <c r="R23" s="9"/>
       <c r="S23" s="9"/>
       <c r="T23" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="U23" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="V23" s="23"/>
       <c r="W23" s="23"/>
       <c r="X23" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Y23" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Z23" s="9"/>
       <c r="AA23" s="9"/>
@@ -2403,13 +2409,13 @@
       <c r="AG23" s="10"/>
       <c r="AH23" s="10"/>
       <c r="AI23" s="10"/>
-      <c r="AJ23" s="35" t="s">
-        <v>40</v>
+      <c r="AJ23" s="33" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="31"/>
-      <c r="B24" s="28"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="11" t="s">
         <v>8</v>
       </c>
@@ -2445,13 +2451,13 @@
       <c r="AG24" s="14"/>
       <c r="AH24" s="14"/>
       <c r="AI24" s="14"/>
-      <c r="AJ24" s="36"/>
+      <c r="AJ24" s="34"/>
     </row>
     <row r="25" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="30">
+      <c r="A25" s="35">
         <v>10</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="36" t="s">
         <v>20</v>
       </c>
       <c r="C25" s="15" t="s">
@@ -2481,7 +2487,7 @@
       <c r="W25" s="23"/>
       <c r="X25" s="17"/>
       <c r="Y25" s="17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Z25" s="17"/>
       <c r="AA25" s="17"/>
@@ -2493,13 +2499,13 @@
       <c r="AG25" s="18"/>
       <c r="AH25" s="18"/>
       <c r="AI25" s="18"/>
-      <c r="AJ25" s="37" t="s">
-        <v>41</v>
+      <c r="AJ25" s="39" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="30"/>
-      <c r="B26" s="29"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="36"/>
       <c r="C26" s="19" t="s">
         <v>8</v>
       </c>
@@ -2541,7 +2547,7 @@
       <c r="A27" s="31">
         <v>11</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -2572,10 +2578,10 @@
       <c r="X27" s="9"/>
       <c r="Y27" s="9"/>
       <c r="Z27" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AA27" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AB27" s="9"/>
       <c r="AC27" s="23"/>
@@ -2585,11 +2591,11 @@
       <c r="AG27" s="10"/>
       <c r="AH27" s="10"/>
       <c r="AI27" s="10"/>
-      <c r="AJ27" s="35"/>
+      <c r="AJ27" s="33"/>
     </row>
     <row r="28" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="31"/>
-      <c r="B28" s="28"/>
+      <c r="B28" s="32"/>
       <c r="C28" s="11" t="s">
         <v>8</v>
       </c>
@@ -2625,13 +2631,13 @@
       <c r="AG28" s="14"/>
       <c r="AH28" s="14"/>
       <c r="AI28" s="14"/>
-      <c r="AJ28" s="36"/>
+      <c r="AJ28" s="34"/>
     </row>
     <row r="29" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="30">
+      <c r="A29" s="35">
         <v>12</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="36" t="s">
         <v>17</v>
       </c>
       <c r="C29" s="15" t="s">
@@ -2664,7 +2670,7 @@
       <c r="Z29" s="17"/>
       <c r="AA29" s="17"/>
       <c r="AB29" s="17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AC29" s="23"/>
       <c r="AD29" s="25"/>
@@ -2673,13 +2679,13 @@
       <c r="AG29" s="18"/>
       <c r="AH29" s="18"/>
       <c r="AI29" s="18"/>
-      <c r="AJ29" s="37" t="s">
-        <v>34</v>
+      <c r="AJ29" s="39" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="30"/>
-      <c r="B30" s="29"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="36"/>
       <c r="C30" s="19" t="s">
         <v>8</v>
       </c>
@@ -2721,7 +2727,7 @@
       <c r="A31" s="31">
         <v>13</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="32" t="s">
         <v>22</v>
       </c>
       <c r="C31" s="7" t="s">
@@ -2757,23 +2763,23 @@
       <c r="AC31" s="23"/>
       <c r="AD31" s="25"/>
       <c r="AE31" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AF31" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AG31" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AH31" s="10"/>
       <c r="AI31" s="10"/>
-      <c r="AJ31" s="35" t="s">
-        <v>29</v>
+      <c r="AJ31" s="33" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="31"/>
-      <c r="B32" s="28"/>
+      <c r="B32" s="32"/>
       <c r="C32" s="11" t="s">
         <v>8</v>
       </c>
@@ -2809,13 +2815,13 @@
       <c r="AG32" s="14"/>
       <c r="AH32" s="14"/>
       <c r="AI32" s="14"/>
-      <c r="AJ32" s="36"/>
+      <c r="AJ32" s="34"/>
     </row>
     <row r="33" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="30">
+      <c r="A33" s="35">
         <v>14</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="36" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="15" t="s">
@@ -2852,22 +2858,22 @@
       <c r="AD33" s="25"/>
       <c r="AE33" s="18"/>
       <c r="AF33" s="18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AG33" s="18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AH33" s="18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AI33" s="18"/>
-      <c r="AJ33" s="37" t="s">
-        <v>35</v>
+      <c r="AJ33" s="39" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="30"/>
-      <c r="B34" s="29"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="36"/>
       <c r="C34" s="19" t="s">
         <v>8</v>
       </c>
@@ -2909,7 +2915,7 @@
       <c r="A35" s="31">
         <v>15</v>
       </c>
-      <c r="B35" s="28" t="s">
+      <c r="B35" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C35" s="7" t="s">
@@ -2948,18 +2954,18 @@
       <c r="AF35" s="10"/>
       <c r="AG35" s="10"/>
       <c r="AH35" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AI35" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ35" s="35" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="AJ35" s="33" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="31"/>
-      <c r="B36" s="28"/>
+      <c r="B36" s="32"/>
       <c r="C36" s="11" t="s">
         <v>8</v>
       </c>
@@ -2995,13 +3001,13 @@
       <c r="AG36" s="14"/>
       <c r="AH36" s="14"/>
       <c r="AI36" s="14"/>
-      <c r="AJ36" s="36"/>
+      <c r="AJ36" s="34"/>
     </row>
     <row r="37" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="30">
+      <c r="A37" s="35">
         <v>16</v>
       </c>
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="36" t="s">
         <v>21</v>
       </c>
       <c r="C37" s="15" t="s">
@@ -3041,15 +3047,15 @@
       <c r="AG37" s="18"/>
       <c r="AH37" s="18"/>
       <c r="AI37" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ37" s="37" t="s">
-        <v>36</v>
+        <v>44</v>
+      </c>
+      <c r="AJ37" s="39" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="30"/>
-      <c r="B38" s="29"/>
+      <c r="A38" s="35"/>
+      <c r="B38" s="36"/>
       <c r="C38" s="19" t="s">
         <v>8</v>
       </c>
@@ -3107,22 +3113,33 @@
     <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="AJ7:AJ8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="AJ9:AJ10"/>
-    <mergeCell ref="AJ29:AJ30"/>
-    <mergeCell ref="AJ31:AJ32"/>
-    <mergeCell ref="AJ33:AJ34"/>
-    <mergeCell ref="AJ35:AJ36"/>
-    <mergeCell ref="AJ37:AJ38"/>
-    <mergeCell ref="AJ17:AJ18"/>
-    <mergeCell ref="AJ19:AJ20"/>
-    <mergeCell ref="AJ21:AJ22"/>
-    <mergeCell ref="AJ23:AJ24"/>
-    <mergeCell ref="AJ25:AJ26"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="AJ1:AJ2"/>
+    <mergeCell ref="AJ3:AJ4"/>
+    <mergeCell ref="AJ5:AJ6"/>
+    <mergeCell ref="AJ11:AJ12"/>
+    <mergeCell ref="AJ13:AJ14"/>
     <mergeCell ref="AJ27:AJ28"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A13:A14"/>
@@ -3139,33 +3156,22 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B14"/>
-    <mergeCell ref="AJ1:AJ2"/>
-    <mergeCell ref="AJ3:AJ4"/>
-    <mergeCell ref="AJ5:AJ6"/>
-    <mergeCell ref="AJ11:AJ12"/>
-    <mergeCell ref="AJ13:AJ14"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="AJ17:AJ18"/>
+    <mergeCell ref="AJ19:AJ20"/>
+    <mergeCell ref="AJ21:AJ22"/>
+    <mergeCell ref="AJ23:AJ24"/>
+    <mergeCell ref="AJ25:AJ26"/>
+    <mergeCell ref="AJ29:AJ30"/>
+    <mergeCell ref="AJ31:AJ32"/>
+    <mergeCell ref="AJ33:AJ34"/>
+    <mergeCell ref="AJ35:AJ36"/>
+    <mergeCell ref="AJ37:AJ38"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="AJ7:AJ8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="AJ9:AJ10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
